--- a/Voelkenrath/conceptsMC5_definitions.xlsx
+++ b/Voelkenrath/conceptsMC5_definitions.xlsx
@@ -4604,7 +4604,7 @@
     <t>A quantity representing the three-dimensional space occupied by all or part of an object.</t>
   </si>
   <si>
-    <t>A stretch of DNA upstream of a transcription start site, to which a promoter and other transcription factors may bind to initiate or regulate expression.</t>
+    <t>A region of DNA to which various transcription factors and RNA polymerase must bind in order to initiate transcription for a gene.</t>
   </si>
   <si>
     <t>Transformation of a non-covalent complex that results in the formation of several independent biochemical entities</t>
